--- a/汽柴煤油2.0/data_input/EB.xlsx
+++ b/汽柴煤油2.0/data_input/EB.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1841"/>
+  <dimension ref="A1:D1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24745,6 +24745,34 @@
         <v>3095.25</v>
       </c>
     </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>6543</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>6506</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>3007.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
